--- a/bibliography.xlsx
+++ b/bibliography.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="49830" windowHeight="6923"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="49830" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>author</t>
   </si>
@@ -170,13 +170,22 @@
   </si>
   <si>
     <t>Andrzej Stanisz</t>
+  </si>
+  <si>
+    <t>http://www.odelama.com/data-analysis/</t>
+  </si>
+  <si>
+    <t>WebPage</t>
+  </si>
+  <si>
+    <t>Odelama</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +206,21 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -215,18 +239,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -241,13 +272,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L9" totalsRowShown="0">
-  <autoFilter ref="A1:L9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L10" totalsRowShown="0">
+  <autoFilter ref="A1:L10"/>
   <tableColumns count="12">
     <tableColumn id="1" name="lp"/>
     <tableColumn id="2" name="added"/>
     <tableColumn id="3" name="type"/>
-    <tableColumn id="4" name="name" dataDxfId="0">
+    <tableColumn id="4" name="name" dataDxfId="1">
       <calculatedColumnFormula>LEFT(G2,FIND(" ",Table1[[#This Row],[author]])-1)&amp;Table1[[#This Row],[year]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="title"/>
@@ -257,8 +288,8 @@
     <tableColumn id="9" name="year"/>
     <tableColumn id="10" name="edition"/>
     <tableColumn id="11" name="url"/>
-    <tableColumn id="12" name="Code">
-      <calculatedColumnFormula>"@"&amp;C2&amp;"{"&amp;D2&amp;", "&amp;$E$1&amp;"={"&amp;E2&amp;"}, "&amp;$F$1&amp;"={"&amp;F2&amp;"}, "&amp;$G$1&amp;"={"&amp;G2&amp;"}, "&amp;$H$1&amp;"={"&amp;$H$2&amp;"}, "&amp;$I$1&amp;"={"&amp;I2&amp;"}, "&amp;$J$1&amp;"={"&amp;J2&amp;"}, "&amp;$K$1&amp;"={"&amp;K2&amp;"} "&amp;"}"</calculatedColumnFormula>
+    <tableColumn id="12" name="Code" dataDxfId="0">
+      <calculatedColumnFormula>"@"&amp;C2&amp;"{"&amp;D2&amp;", "&amp;$E$1&amp;"={"&amp;E2&amp;"}, "&amp;$F$1&amp;"={"&amp;F2&amp;"}, "&amp;$G$1&amp;"={"&amp;G2&amp;"}, "&amp;$H$1&amp;"={"&amp;H2&amp;"}, "&amp;$I$1&amp;"={"&amp;I2&amp;"}, "&amp;$J$1&amp;"={"&amp;J2&amp;"}, "&amp;$K$1&amp;"={"&amp;K2&amp;"} "&amp;"}"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -552,21 +583,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.9296875" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" customWidth="1"/>
-    <col min="8" max="8" width="10.265625" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -597,14 +628,14 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -640,11 +671,11 @@
         <v>16</v>
       </c>
       <c r="L2" t="str">
-        <f>"@"&amp;C2&amp;"{"&amp;D2&amp;", "&amp;$E$1&amp;"={"&amp;E2&amp;"}, "&amp;$F$1&amp;"={"&amp;F2&amp;"}, "&amp;$G$1&amp;"={"&amp;G2&amp;"}, "&amp;$H$1&amp;"={"&amp;$H$2&amp;"}, "&amp;$I$1&amp;"={"&amp;I2&amp;"}, "&amp;$J$1&amp;"={"&amp;J2&amp;"}, "&amp;$K$1&amp;"={"&amp;K2&amp;"} "&amp;"}"</f>
+        <f t="shared" ref="L2:L10" si="0">"@"&amp;C2&amp;"{"&amp;D2&amp;", "&amp;$E$1&amp;"={"&amp;E2&amp;"}, "&amp;$F$1&amp;"={"&amp;F2&amp;"}, "&amp;$G$1&amp;"={"&amp;G2&amp;"}, "&amp;$H$1&amp;"={"&amp;H2&amp;"}, "&amp;$I$1&amp;"={"&amp;I2&amp;"}, "&amp;$J$1&amp;"={"&amp;J2&amp;"}, "&amp;$K$1&amp;"={"&amp;K2&amp;"} "&amp;"}"</f>
         <v>@Book{Xie2015, title={Dynamic Documents with {R} and knitr}, subtitle={podtytul}, author={Xie Yihui}, publisher={Chapman and Hall/CRC}, year={2015}, edition={2}, url={http://yihui.name/knitr/} }</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -677,11 +708,11 @@
         <v>2</v>
       </c>
       <c r="L3" t="str">
-        <f>"@"&amp;C3&amp;"{"&amp;D3&amp;", "&amp;$E$1&amp;"={"&amp;E3&amp;"}, "&amp;$F$1&amp;"={"&amp;F3&amp;"}, "&amp;$G$1&amp;"={"&amp;G3&amp;"}, "&amp;$H$1&amp;"={"&amp;$H$2&amp;"}, "&amp;$I$1&amp;"={"&amp;I3&amp;"}, "&amp;$J$1&amp;"={"&amp;J3&amp;"}, "&amp;$K$1&amp;"={"&amp;K3&amp;"} "&amp;"}"</f>
-        <v>@Book{Kopczewska2017, title={Metody ilościowe w R}, subtitle={Aplikacje ekonomiczne i finansowe}, author={Kopczewska Katarzyna, Kopczewski Tomasz, Wójcik Piotr}, publisher={Chapman and Hall/CRC}, year={2017}, edition={2}, url={} }</v>
+        <f t="shared" si="0"/>
+        <v>@Book{Kopczewska2017, title={Metody ilościowe w R}, subtitle={Aplikacje ekonomiczne i finansowe}, author={Kopczewska Katarzyna, Kopczewski Tomasz, Wójcik Piotr}, publisher={CeDeWu}, year={2017}, edition={2}, url={} }</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -711,11 +742,11 @@
         <v>1</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L7" si="0">"@"&amp;C4&amp;"{"&amp;D4&amp;", "&amp;$E$1&amp;"={"&amp;E4&amp;"}, "&amp;$F$1&amp;"={"&amp;F4&amp;"}, "&amp;$G$1&amp;"={"&amp;G4&amp;"}, "&amp;$H$1&amp;"={"&amp;$H$2&amp;"}, "&amp;$I$1&amp;"={"&amp;I4&amp;"}, "&amp;$J$1&amp;"={"&amp;J4&amp;"}, "&amp;$K$1&amp;"={"&amp;K4&amp;"} "&amp;"}"</f>
-        <v>@Book{Kopczewska2007, title={Ekonometria i statystyka przestrzenna z wykorzystaniem programu R CRAN}, subtitle={}, author={Kopczewska Katarzyna}, publisher={Chapman and Hall/CRC}, year={2007}, edition={1}, url={} }</v>
+        <f t="shared" si="0"/>
+        <v>@Book{Kopczewska2007, title={Ekonometria i statystyka przestrzenna z wykorzystaniem programu R CRAN}, subtitle={}, author={Kopczewska Katarzyna}, publisher={CeDeWu}, year={2007}, edition={1}, url={} }</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -746,10 +777,10 @@
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>@Book{Andrzej2006, title={Przystępny kurs statystyki z zastosowaniem STATISTICA PL na przykładach z medycyny (3 tomy)}, subtitle={}, author={Andrzej Stanisz}, publisher={Chapman and Hall/CRC}, year={2006}, edition={3}, url={} }</v>
+        <v>@Book{Andrzej2006, title={Przystępny kurs statystyki z zastosowaniem STATISTICA PL na przykładach z medycyny (3 tomy)}, subtitle={}, author={Andrzej Stanisz}, publisher={StatSoft}, year={2006}, edition={3}, url={} }</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -780,10 +811,10 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>@Book{Przemysław2008, title={Przewodnik po pakiecie R}, subtitle={}, author={Przemysław Biecek}, publisher={Chapman and Hall/CRC}, year={2008}, edition={1}, url={} }</v>
+        <v>@Book{Przemysław2008, title={Przewodnik po pakiecie R}, subtitle={}, author={Przemysław Biecek}, publisher={GiS}, year={2008}, edition={1}, url={} }</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -814,10 +845,10 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>@Book{Gatnar2011, title={Analiza danych jakościowych i symbolicznych z wykorzystaniem programu R}, subtitle={}, author={Gatnar Eugeniusz, Walesiak Marek}, publisher={Chapman and Hall/CRC}, year={2011}, edition={1}, url={} }</v>
+        <v>@Book{Gatnar2011, title={Analiza danych jakościowych i symbolicznych z wykorzystaniem programu R}, subtitle={}, author={Gatnar Eugeniusz, Walesiak Marek}, publisher={Beck}, year={2011}, edition={1}, url={} }</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -847,11 +878,11 @@
         <v>1</v>
       </c>
       <c r="L8" t="str">
-        <f>"@"&amp;C8&amp;"{"&amp;D8&amp;", "&amp;$E$1&amp;"={"&amp;E8&amp;"}, "&amp;$F$1&amp;"={"&amp;F8&amp;"}, "&amp;$G$1&amp;"={"&amp;G8&amp;"}, "&amp;$H$1&amp;"={"&amp;$H$2&amp;"}, "&amp;$I$1&amp;"={"&amp;I8&amp;"}, "&amp;$J$1&amp;"={"&amp;J8&amp;"}, "&amp;$K$1&amp;"={"&amp;K8&amp;"} "&amp;"}"</f>
-        <v>@Book{Gatnar2008, title={Podejście wielomodelowe w zagadnieniach dyskryminacji i regresji}, subtitle={}, author={Gatnar Eugeniusz}, publisher={Chapman and Hall/CRC}, year={2008}, edition={1}, url={} }</v>
+        <f t="shared" si="0"/>
+        <v>@Book{Gatnar2008, title={Podejście wielomodelowe w zagadnieniach dyskryminacji i regresji}, subtitle={}, author={Gatnar Eugeniusz}, publisher={PWN}, year={2008}, edition={1}, url={} }</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -884,15 +915,37 @@
         <v>1</v>
       </c>
       <c r="L9" t="str">
-        <f>"@"&amp;C9&amp;"{"&amp;D9&amp;", "&amp;$E$1&amp;"={"&amp;E9&amp;"}, "&amp;$F$1&amp;"={"&amp;F9&amp;"}, "&amp;$G$1&amp;"={"&amp;G9&amp;"}, "&amp;$H$1&amp;"={"&amp;$H$2&amp;"}, "&amp;$I$1&amp;"={"&amp;I9&amp;"}, "&amp;$J$1&amp;"={"&amp;J9&amp;"}, "&amp;$K$1&amp;"={"&amp;K9&amp;"} "&amp;"}"</f>
-        <v>@Book{Krzyśko2008, title={Systemy uczące się}, subtitle={rozpoznawanie wzorców, analiza skupień i redukcja wymiarowości}, author={Krzyśko Mirosław, Wołyński Waldemar, Górecki Tomasz, Skorzybut Michał}, publisher={Chapman and Hall/CRC}, year={2008}, edition={1}, url={} }</v>
+        <f t="shared" si="0"/>
+        <v>@Book{Krzyśko2008, title={Systemy uczące się}, subtitle={rozpoznawanie wzorców, analiza skupień i redukcja wymiarowości}, author={Krzyśko Mirosław, Wołyński Waldemar, Górecki Tomasz, Skorzybut Michał}, publisher={WNT}, year={2008}, edition={1}, url={} }</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>2019</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>@WebPage{Odelama, title={}, subtitle={}, author={}, publisher={}, year={2019}, edition={}, url={http://www.odelama.com/data-analysis/} }</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -903,7 +956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -915,7 +968,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bibliography.xlsx
+++ b/bibliography.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t xml:space="preserve">lp</t>
   </si>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">Aplikacje ekonomiczne i finansowe</t>
   </si>
   <si>
-    <t xml:space="preserve">Kopczewska Katarzyna, Kopczewski Tomasz, Wójcik Piotr</t>
+    <t xml:space="preserve">Kopczewska Kopczewski Wójcik</t>
   </si>
   <si>
     <t xml:space="preserve">CeDeWu</t>
@@ -128,13 +128,13 @@
     <t xml:space="preserve">Ekonometria i statystyka przestrzenna z wykorzystaniem programu R CRAN</t>
   </si>
   <si>
-    <t xml:space="preserve">Kopczewska Katarzyna</t>
+    <t xml:space="preserve">Kopczewska </t>
   </si>
   <si>
     <t xml:space="preserve">Przystępny kurs statystyki z zastosowaniem STATISTICA PL na przykładach z medycyny (3 tomy)</t>
   </si>
   <si>
-    <t xml:space="preserve">Andrzej Stanisz</t>
+    <t xml:space="preserve">Stanisz </t>
   </si>
   <si>
     <t xml:space="preserve">StatSoft</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">Przewodnik po pakiecie R</t>
   </si>
   <si>
-    <t xml:space="preserve">Przemysław Biecek</t>
+    <t xml:space="preserve">Biecek </t>
   </si>
   <si>
     <t xml:space="preserve">GiS</t>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t xml:space="preserve">Modele liniowe z efektami stałymi, losowymi i mieszanymi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biecek </t>
   </si>
   <si>
     <t xml:space="preserve">Note</t>
@@ -467,10 +464,10 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.65"/>
@@ -594,7 +591,7 @@
       </c>
       <c r="L3" s="0" t="str">
         <f aca="false">"@"&amp;C3&amp;"{"&amp;D3&amp;", "&amp;$E$1&amp;"={"&amp;E3&amp;"}, "&amp;$F$1&amp;"={"&amp;F3&amp;"}, "&amp;$G$1&amp;"={"&amp;G3&amp;"}, "&amp;$H$1&amp;"={"&amp;H3&amp;"}, "&amp;$I$1&amp;"={"&amp;I3&amp;"}, "&amp;$J$1&amp;"={"&amp;J3&amp;"}, "&amp;$K$1&amp;"={"&amp;K3&amp;"} "&amp;"}"</f>
-        <v>@Book{Kopczewska2017, title={Metody ilościowe w R}, subtitle={Aplikacje ekonomiczne i finansowe}, author={Kopczewska Katarzyna, Kopczewski Tomasz, Wójcik Piotr}, publisher={CeDeWu}, year={2017}, edition={2}, url={} }</v>
+        <v>@Book{Kopczewska2017, title={Metody ilościowe w R}, subtitle={Aplikacje ekonomiczne i finansowe}, author={Kopczewska Kopczewski Wójcik}, publisher={CeDeWu}, year={2017}, edition={2}, url={} }</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,7 +625,7 @@
       </c>
       <c r="L4" s="0" t="str">
         <f aca="false">"@"&amp;C4&amp;"{"&amp;D4&amp;", "&amp;$E$1&amp;"={"&amp;E4&amp;"}, "&amp;$F$1&amp;"={"&amp;F4&amp;"}, "&amp;$G$1&amp;"={"&amp;G4&amp;"}, "&amp;$H$1&amp;"={"&amp;H4&amp;"}, "&amp;$I$1&amp;"={"&amp;I4&amp;"}, "&amp;$J$1&amp;"={"&amp;J4&amp;"}, "&amp;$K$1&amp;"={"&amp;K4&amp;"} "&amp;"}"</f>
-        <v>@Book{Kopczewska2007, title={Ekonometria i statystyka przestrzenna z wykorzystaniem programu R CRAN}, subtitle={}, author={Kopczewska Katarzyna}, publisher={CeDeWu}, year={2007}, edition={1}, url={} }</v>
+        <v>@Book{Kopczewska2007, title={Ekonometria i statystyka przestrzenna z wykorzystaniem programu R CRAN}, subtitle={}, author={Kopczewska }, publisher={CeDeWu}, year={2007}, edition={1}, url={} }</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,7 +640,7 @@
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">LEFT(G5,FIND(" ",Table1[[#This Row],[author]])-1)&amp;Table1[[#This Row],[year]]</f>
-        <v>Andrzej2006</v>
+        <v>Stanisz2006</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>24</v>
@@ -662,7 +659,7 @@
       </c>
       <c r="L5" s="0" t="str">
         <f aca="false">"@"&amp;C5&amp;"{"&amp;D5&amp;", "&amp;$E$1&amp;"={"&amp;E5&amp;"}, "&amp;$F$1&amp;"={"&amp;F5&amp;"}, "&amp;$G$1&amp;"={"&amp;G5&amp;"}, "&amp;$H$1&amp;"={"&amp;H5&amp;"}, "&amp;$I$1&amp;"={"&amp;I5&amp;"}, "&amp;$J$1&amp;"={"&amp;J5&amp;"}, "&amp;$K$1&amp;"={"&amp;K5&amp;"} "&amp;"}"</f>
-        <v>@Book{Andrzej2006, title={Przystępny kurs statystyki z zastosowaniem STATISTICA PL na przykładach z medycyny (3 tomy)}, subtitle={}, author={Andrzej Stanisz}, publisher={StatSoft}, year={2006}, edition={3}, url={} }</v>
+        <v>@Book{Stanisz2006, title={Przystępny kurs statystyki z zastosowaniem STATISTICA PL na przykładach z medycyny (3 tomy)}, subtitle={}, author={Stanisz }, publisher={StatSoft}, year={2006}, edition={3}, url={} }</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,7 +674,7 @@
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">LEFT(G6,FIND(" ",Table1[[#This Row],[author]])-1)&amp;Table1[[#This Row],[year]]</f>
-        <v>Przemysław2008</v>
+        <v>Biecek2008</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>27</v>
@@ -696,7 +693,7 @@
       </c>
       <c r="L6" s="0" t="str">
         <f aca="false">"@"&amp;C6&amp;"{"&amp;D6&amp;", "&amp;$E$1&amp;"={"&amp;E6&amp;"}, "&amp;$F$1&amp;"={"&amp;F6&amp;"}, "&amp;$G$1&amp;"={"&amp;G6&amp;"}, "&amp;$H$1&amp;"={"&amp;H6&amp;"}, "&amp;$I$1&amp;"={"&amp;I6&amp;"}, "&amp;$J$1&amp;"={"&amp;J6&amp;"}, "&amp;$K$1&amp;"={"&amp;K6&amp;"} "&amp;"}"</f>
-        <v>@Book{Przemysław2008, title={Przewodnik po pakiecie R}, subtitle={}, author={Przemysław Biecek}, publisher={GiS}, year={2008}, edition={1}, url={} }</v>
+        <v>@Book{Biecek2008, title={Przewodnik po pakiecie R}, subtitle={}, author={Biecek }, publisher={GiS}, year={2008}, edition={1}, url={} }</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,7 +1249,7 @@
         <v>71</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>35</v>
@@ -1421,26 +1418,26 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1462,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
